--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_2ИСИП-221\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\YandexDisk\Преподавание2023_V1\Бумаги\KipFin_Lab_2023_v1_Git0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F1D7C-5A4D-4EFF-B2AE-26C1125FB193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2475329-6576-437D-929A-A1CF75A5DD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,12 +146,24 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -181,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -194,6 +206,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -501,10 +515,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="D33" activeCellId="5" sqref="D9 D10 D16 D20 D25 D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -578,7 +592,7 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
@@ -601,7 +615,7 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>5</v>
       </c>
       <c r="E9" s="2"/>
@@ -614,7 +628,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
@@ -677,7 +691,7 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>5</v>
       </c>
       <c r="E16" s="2"/>
@@ -720,7 +734,7 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>5</v>
       </c>
       <c r="E20" s="2"/>
@@ -773,7 +787,7 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>5</v>
       </c>
       <c r="E25" s="2"/>
@@ -796,7 +810,7 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>5</v>
       </c>
       <c r="E27" s="2"/>
@@ -859,10 +873,10 @@
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="7">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7">
         <v>5</v>
       </c>
       <c r="E33" s="2"/>
@@ -875,7 +889,7 @@
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>5</v>
       </c>
       <c r="E34" s="2"/>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\YandexDisk\Преподавание2023_V1\Бумаги\KipFin_Lab_2023_v1_Git0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2475329-6576-437D-929A-A1CF75A5DD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9FE01B-A7D3-40B0-8A20-D55056C15D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,10 +204,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,10 +515,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D33" activeCellId="5" sqref="D9 D10 D16 D20 D25 D33"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -529,27 +529,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -592,7 +592,7 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
@@ -615,7 +615,7 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>5</v>
       </c>
       <c r="E9" s="2"/>
@@ -628,7 +628,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
@@ -691,7 +691,7 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>5</v>
       </c>
       <c r="E16" s="2"/>
@@ -704,6 +704,9 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
@@ -714,6 +717,9 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -724,6 +730,9 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
@@ -734,7 +743,7 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>5</v>
       </c>
       <c r="E20" s="2"/>
@@ -747,6 +756,9 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
@@ -757,6 +769,9 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
@@ -787,7 +802,7 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>5</v>
       </c>
       <c r="E25" s="2"/>
@@ -810,7 +825,7 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>5</v>
       </c>
       <c r="E27" s="2"/>
@@ -843,6 +858,9 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
@@ -863,6 +881,9 @@
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
@@ -873,10 +894,10 @@
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="7">
-        <v>5</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5">
         <v>5</v>
       </c>
       <c r="E33" s="2"/>
@@ -889,7 +910,7 @@
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>5</v>
       </c>
       <c r="E34" s="2"/>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9FE01B-A7D3-40B0-8A20-D55056C15D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B879F3-C399-48A1-A046-1D5B90B07716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Аушев Исмаил</t>
   </si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>Тест</t>
+  </si>
+  <si>
+    <t>Лаб_2</t>
+  </si>
+  <si>
+    <t>Лаб_3</t>
+  </si>
+  <si>
+    <t>Лаб_4</t>
+  </si>
+  <si>
+    <t>Лаб_5</t>
   </si>
 </sst>
 </file>
@@ -515,10 +527,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -558,8 +570,18 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
@@ -615,6 +637,9 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
       <c r="D9" s="5">
         <v>5</v>
       </c>
@@ -641,8 +666,14 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
+      <c r="H11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -697,7 +728,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -710,7 +741,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -722,8 +753,14 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -736,7 +773,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -749,7 +786,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -762,7 +799,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -775,7 +812,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -785,7 +822,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -795,7 +832,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -808,7 +845,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -818,7 +855,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -831,7 +868,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -841,7 +878,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -851,7 +888,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -864,7 +901,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -874,7 +911,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B879F3-C399-48A1-A046-1D5B90B07716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55FAAEF-36F3-497A-9993-6B65D9BA73DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -669,8 +669,12 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
       <c r="H11">
         <v>5</v>
       </c>
@@ -702,6 +706,9 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -751,8 +758,12 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
       <c r="G18">
         <v>5</v>
       </c>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55FAAEF-36F3-497A-9993-6B65D9BA73DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9AD76-0AF2-4F28-9BC0-02F8153BF270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,10 +527,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -878,6 +878,9 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
+      <c r="H27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -911,6 +914,9 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+      <c r="H30">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -934,8 +940,11 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -951,7 +960,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -963,8 +972,11 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9AD76-0AF2-4F28-9BC0-02F8153BF270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63028A25-E36C-4B0A-951F-8AF8666C3476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,10 +527,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -619,6 +619,9 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
+      <c r="H7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -645,6 +648,9 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="H9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -658,6 +664,9 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="H10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -720,7 +729,9 @@
         <v>10</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -734,6 +745,9 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
+      <c r="H16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -746,7 +760,9 @@
         <v>5</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -782,7 +798,12 @@
         <v>5</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -808,7 +829,12 @@
         <v>5</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -821,7 +847,15 @@
         <v>5</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -855,6 +889,9 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
+      <c r="H25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -877,7 +914,9 @@
         <v>5</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
       <c r="H27">
         <v>5</v>
       </c>
@@ -890,7 +929,9 @@
         <v>23</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -913,7 +954,9 @@
         <v>5</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
       <c r="H30">
         <v>5</v>
       </c>
@@ -958,7 +1001,9 @@
         <v>5</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63028A25-E36C-4B0A-951F-8AF8666C3476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E963D15-E7A1-44CE-B656-4F477160CEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,10 +527,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -617,7 +617,12 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="H7">
         <v>5</v>
@@ -678,6 +683,9 @@
       <c r="C11">
         <v>5</v>
       </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
@@ -695,6 +703,9 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -705,6 +716,9 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -718,6 +732,9 @@
       <c r="C14">
         <v>5</v>
       </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -728,7 +745,12 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
       <c r="F15" s="2">
         <v>5</v>
       </c>
@@ -759,7 +781,12 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
       <c r="F17" s="2">
         <v>5</v>
       </c>
@@ -774,6 +801,9 @@
       <c r="C18">
         <v>5</v>
       </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
@@ -797,6 +827,9 @@
       <c r="C19">
         <v>5</v>
       </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
         <v>5</v>
@@ -815,7 +848,9 @@
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.25">
@@ -828,7 +863,9 @@
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
       <c r="F21" s="2">
         <v>5</v>
       </c>
@@ -846,7 +883,9 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
       <c r="F22" s="2">
         <v>5</v>
       </c>
@@ -864,6 +903,9 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
@@ -874,6 +916,9 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
@@ -887,7 +932,9 @@
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="H25">
         <v>5</v>
@@ -913,7 +960,12 @@
       <c r="C27" s="5">
         <v>5</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
       <c r="F27" s="2">
         <v>5</v>
       </c>
@@ -928,7 +980,12 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
       <c r="F28" s="2">
         <v>5</v>
       </c>
@@ -940,6 +997,9 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
@@ -953,7 +1013,12 @@
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
       <c r="F30" s="2">
         <v>5</v>
       </c>
@@ -1000,7 +1065,9 @@
       <c r="D33" s="5">
         <v>5</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
       <c r="F33" s="2">
         <v>5</v>
       </c>
@@ -1015,7 +1082,12 @@
       <c r="C34" s="5">
         <v>5</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="H34">
         <v>5</v>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E963D15-E7A1-44CE-B656-4F477160CEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E47C68-5354-412C-9F04-9A8E36759162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -604,6 +604,9 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
@@ -851,7 +854,9 @@
       <c r="E20" s="2">
         <v>5</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E47C68-5354-412C-9F04-9A8E36759162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91CD8AE-C14F-4D47-97CF-CE1B9AF2C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -626,7 +626,9 @@
       <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
       <c r="H7">
         <v>5</v>
       </c>
@@ -765,11 +767,16 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
       <c r="D16" s="5">
         <v>5</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
       <c r="H16">
         <v>5</v>
       </c>
@@ -1025,6 +1032,9 @@
         <v>5</v>
       </c>
       <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30">
         <v>5</v>
       </c>
       <c r="H30">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91CD8AE-C14F-4D47-97CF-CE1B9AF2C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18758CBA-1102-4407-8E24-39A2E6FAED8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Аушев Исмаил</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Лаб_5</t>
+  </si>
+  <si>
+    <t>Лаб_6</t>
+  </si>
+  <si>
+    <t>Лаб_7</t>
   </si>
 </sst>
 </file>
@@ -527,10 +533,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -582,6 +588,12 @@
       <c r="H3" t="s">
         <v>35</v>
       </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
@@ -629,7 +641,13 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="J7">
         <v>5</v>
       </c>
     </row>
@@ -657,7 +675,9 @@
         <v>5</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
       <c r="H9">
         <v>5</v>
       </c>
@@ -669,6 +689,9 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
       <c r="D10" s="5">
         <v>5</v>
       </c>
@@ -700,6 +723,9 @@
       <c r="H11">
         <v>5</v>
       </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -726,6 +752,9 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
+      <c r="H13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -780,8 +809,11 @@
       <c r="H16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -800,8 +832,11 @@
       <c r="F17" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -827,7 +862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -848,7 +883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -864,8 +899,11 @@
       <c r="F20" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -881,11 +919,14 @@
       <c r="F21" s="2">
         <v>5</v>
       </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
       <c r="H21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -907,8 +948,11 @@
       <c r="H22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -920,8 +964,11 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -934,13 +981,16 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
       <c r="D25" s="5">
         <v>5</v>
       </c>
@@ -952,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -962,7 +1012,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -985,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1002,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1015,7 +1065,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1041,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1051,7 +1101,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1067,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1086,8 +1136,14 @@
       <c r="F33" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1108,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18758CBA-1102-4407-8E24-39A2E6FAED8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18712A5-4F7C-48E4-BEBD-74D28DD08E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -224,6 +224,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -533,10 +536,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="H34" activeCellId="6" sqref="H21 H22 H25 H27 H30 H32 H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -547,27 +550,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -616,7 +619,7 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
@@ -632,19 +635,19 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
         <v>5</v>
       </c>
       <c r="J7">
@@ -668,17 +671,17 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>5</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9">
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
         <v>5</v>
       </c>
     </row>
@@ -689,7 +692,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="5">
@@ -697,7 +700,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>5</v>
       </c>
     </row>
@@ -708,19 +711,19 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11">
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5">
         <v>5</v>
       </c>
       <c r="J11">
@@ -734,7 +737,7 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="E12" s="2"/>
@@ -747,12 +750,12 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>5</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>5</v>
       </c>
     </row>
@@ -763,10 +766,10 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
         <v>5</v>
       </c>
       <c r="E14" s="2"/>
@@ -779,13 +782,13 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
         <v>5</v>
       </c>
     </row>
@@ -796,17 +799,17 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>5</v>
       </c>
       <c r="D16" s="5">
         <v>5</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
         <v>5</v>
       </c>
       <c r="I16">
@@ -820,19 +823,19 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-      <c r="H17">
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5">
         <v>5</v>
       </c>
     </row>
@@ -843,22 +846,22 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
         <v>5</v>
       </c>
     </row>
@@ -869,17 +872,17 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
         <v>5</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19">
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
         <v>5</v>
       </c>
     </row>
@@ -893,13 +896,13 @@
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20">
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5">
         <v>5</v>
       </c>
     </row>
@@ -910,19 +913,19 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>5</v>
-      </c>
-      <c r="H21">
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
         <v>5</v>
       </c>
     </row>
@@ -933,19 +936,19 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22">
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5">
+        <v>5</v>
+      </c>
+      <c r="H22" s="5">
         <v>5</v>
       </c>
       <c r="I22">
@@ -959,7 +962,7 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>5</v>
       </c>
       <c r="E23" s="2"/>
@@ -975,7 +978,7 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>5</v>
       </c>
       <c r="E24" s="2"/>
@@ -988,17 +991,17 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>5</v>
       </c>
       <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="6">
         <v>5</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1022,16 +1025,16 @@
       <c r="C27" s="5">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27" s="2">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27">
+      <c r="D27" s="5">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>5</v>
+      </c>
+      <c r="H27" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1042,13 +1045,13 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2">
-        <v>5</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1059,7 +1062,7 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>5</v>
       </c>
       <c r="E29" s="2"/>
@@ -1072,22 +1075,22 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
-      <c r="F30" s="2">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5">
+        <v>5</v>
+      </c>
+      <c r="H30" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1108,12 +1111,12 @@
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>5</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="H32">
+      <c r="H32" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1130,13 +1133,13 @@
       <c r="D33" s="5">
         <v>5</v>
       </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2">
-        <v>5</v>
-      </c>
-      <c r="G33">
+      <c r="E33" s="6">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5</v>
+      </c>
+      <c r="G33" s="5">
         <v>5</v>
       </c>
       <c r="J33">
@@ -1153,14 +1156,14 @@
       <c r="C34" s="5">
         <v>5</v>
       </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="5">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6">
         <v>5</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="H34">
+      <c r="H34" s="5">
         <v>5</v>
       </c>
     </row>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18712A5-4F7C-48E4-BEBD-74D28DD08E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B6C2D-1D0B-4224-9FF4-33B8ED7B9BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,6 +235,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,7 +546,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H34" activeCellId="6" sqref="H21 H22 H25 H27 H30 H32 H34"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -916,6 +923,9 @@
       <c r="C21" s="5">
         <v>5</v>
       </c>
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
       <c r="E21" s="6">
         <v>5</v>
       </c>
@@ -937,6 +947,9 @@
         <v>17</v>
       </c>
       <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9">
         <v>5</v>
       </c>
       <c r="E22" s="6">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B6C2D-1D0B-4224-9FF4-33B8ED7B9BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF43329-9C1E-4778-B0A8-6A12B58A0751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,9 +233,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,10 +543,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -557,27 +557,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -630,7 +630,15 @@
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -670,6 +678,9 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
+      <c r="H8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -686,6 +697,9 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" s="5">
@@ -730,7 +744,13 @@
       <c r="F11" s="6">
         <v>5</v>
       </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
       <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11">
         <v>5</v>
       </c>
       <c r="J11">
@@ -749,6 +769,9 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -816,6 +839,9 @@
       <c r="F16" s="6">
         <v>5</v>
       </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
       <c r="H16" s="5">
         <v>5</v>
       </c>
@@ -912,6 +938,9 @@
       <c r="G20" s="5">
         <v>5</v>
       </c>
+      <c r="H20" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -923,7 +952,7 @@
       <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>5</v>
       </c>
       <c r="E21" s="6">
@@ -949,7 +978,7 @@
       <c r="C22" s="5">
         <v>5</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>5</v>
       </c>
       <c r="E22" s="6">
@@ -979,7 +1008,12 @@
         <v>5</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
       <c r="J23">
         <v>5</v>
       </c>
@@ -1013,7 +1047,12 @@
       <c r="E25" s="6">
         <v>5</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>5</v>
+      </c>
       <c r="H25" s="5">
         <v>5</v>
       </c>
@@ -1050,6 +1089,9 @@
       <c r="H27" s="5">
         <v>5</v>
       </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1067,6 +1109,9 @@
       <c r="F28" s="6">
         <v>5</v>
       </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1079,7 +1124,12 @@
         <v>5</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF43329-9C1E-4778-B0A8-6A12B58A0751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98767822-EAD6-4201-AD7E-E1F20059D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,10 +543,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -676,6 +676,9 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="H8">
@@ -695,7 +698,9 @@
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
       <c r="F9" s="6">
         <v>5</v>
       </c>
@@ -835,7 +840,9 @@
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
       <c r="F16" s="6">
         <v>5</v>
       </c>
@@ -1123,7 +1130,9 @@
       <c r="D29" s="5">
         <v>5</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
       <c r="F29" s="2">
         <v>5</v>
       </c>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98767822-EAD6-4201-AD7E-E1F20059D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD30FA-0C63-4921-9AA3-BA30671A1534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,6 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,10 +544,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1214,6 +1215,9 @@
       <c r="G33" s="5">
         <v>5</v>
       </c>
+      <c r="H33" s="10">
+        <v>5</v>
+      </c>
       <c r="J33">
         <v>5</v>
       </c>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-221\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD30FA-0C63-4921-9AA3-BA30671A1534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF70454-9764-4C06-854D-38E43042D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +180,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,10 +227,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -544,10 +536,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="J11" activeCellId="1" sqref="J7 J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -558,27 +550,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -631,13 +623,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
         <v>5</v>
       </c>
     </row>
@@ -666,7 +658,7 @@
       <c r="H7" s="5">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>5</v>
       </c>
     </row>
@@ -677,12 +669,12 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>5</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>5</v>
       </c>
     </row>
@@ -699,13 +691,13 @@
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <v>5</v>
       </c>
       <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>5</v>
       </c>
       <c r="H9" s="5">
@@ -750,16 +742,16 @@
       <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>5</v>
       </c>
       <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5">
         <v>5</v>
       </c>
     </row>
@@ -775,7 +767,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>5</v>
       </c>
     </row>
@@ -841,19 +833,19 @@
       <c r="D16" s="5">
         <v>5</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="6">
         <v>5</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>5</v>
       </c>
       <c r="H16" s="5">
         <v>5</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>5</v>
       </c>
     </row>
@@ -946,7 +938,7 @@
       <c r="G20" s="5">
         <v>5</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="5">
         <v>5</v>
       </c>
     </row>
@@ -960,7 +952,7 @@
       <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>5</v>
       </c>
       <c r="E21" s="6">
@@ -986,7 +978,7 @@
       <c r="C22" s="5">
         <v>5</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>5</v>
       </c>
       <c r="E22" s="6">
@@ -1001,7 +993,7 @@
       <c r="H22" s="5">
         <v>5</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1016,13 +1008,13 @@
         <v>5</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
-      <c r="J23">
+      <c r="F23" s="6">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1055,10 +1047,10 @@
       <c r="E25" s="6">
         <v>5</v>
       </c>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5">
         <v>5</v>
       </c>
       <c r="H25" s="5">
@@ -1097,7 +1089,7 @@
       <c r="H27" s="5">
         <v>5</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1117,7 +1109,7 @@
       <c r="F28" s="6">
         <v>5</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1131,13 +1123,13 @@
       <c r="D29" s="5">
         <v>5</v>
       </c>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2">
-        <v>5</v>
-      </c>
-      <c r="G29">
+      <c r="E29" s="6">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1215,10 +1207,10 @@
       <c r="G33" s="5">
         <v>5</v>
       </c>
-      <c r="H33" s="10">
-        <v>5</v>
-      </c>
-      <c r="J33">
+      <c r="H33" s="5">
+        <v>5</v>
+      </c>
+      <c r="J33" s="5">
         <v>5</v>
       </c>
     </row>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF70454-9764-4C06-854D-38E43042D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391E91F2-AB5A-40AC-9329-C060ECC51E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,6 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -536,10 +543,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" activeCellId="1" sqref="J7 J11"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -550,27 +557,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -1056,6 +1063,9 @@
       <c r="H25" s="5">
         <v>5</v>
       </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -1166,8 +1176,21 @@
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="D31" s="7">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391E91F2-AB5A-40AC-9329-C060ECC51E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EEFCCC-093F-4692-A4D0-14E2AC032B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1185,6 +1185,9 @@
       <c r="F31" s="2">
         <v>5</v>
       </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
       <c r="H31" s="7">
         <v>5</v>
       </c>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EEFCCC-093F-4692-A4D0-14E2AC032B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7CD1F2-F5E0-4FB4-98F1-763A5153BB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,10 +543,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -933,6 +933,9 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
       <c r="D20" s="5">
         <v>5</v>
       </c>
@@ -1256,8 +1259,16 @@
       <c r="E34" s="6">
         <v>5</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
       <c r="H34" s="5">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
         <v>5</v>
       </c>
     </row>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7CD1F2-F5E0-4FB4-98F1-763A5153BB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED04A499-1C34-4B54-90DC-D9BEB3A87AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +180,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,7 +227,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -546,7 +539,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -557,27 +550,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -933,7 +926,7 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>5</v>
       </c>
       <c r="D20" s="5">
@@ -1066,7 +1059,7 @@
       <c r="H25" s="5">
         <v>5</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1179,22 +1172,22 @@
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="7">
-        <v>5</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="J31">
+      <c r="D31" s="5">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6">
+        <v>5</v>
+      </c>
+      <c r="F31" s="6">
+        <v>5</v>
+      </c>
+      <c r="G31" s="5">
+        <v>5</v>
+      </c>
+      <c r="H31" s="5">
+        <v>5</v>
+      </c>
+      <c r="J31" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1259,16 +1252,16 @@
       <c r="E34" s="6">
         <v>5</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="6">
         <v>5</v>
       </c>
       <c r="H34" s="5">
         <v>5</v>
       </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="J34">
+      <c r="I34" s="5">
+        <v>5</v>
+      </c>
+      <c r="J34" s="5">
         <v>5</v>
       </c>
     </row>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED04A499-1C34-4B54-90DC-D9BEB3A87AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C12A8C-B68B-4E90-9021-8EA631871733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Аушев Исмаил</t>
   </si>
@@ -112,43 +112,40 @@
     <t>Язева Александра</t>
   </si>
   <si>
-    <t>Лаб_1</t>
-  </si>
-  <si>
     <t>Тест</t>
   </si>
   <si>
-    <t>Лаб_2</t>
-  </si>
-  <si>
-    <t>Лаб_3</t>
-  </si>
-  <si>
-    <t>Лаб_4</t>
-  </si>
-  <si>
-    <t>Лаб_5</t>
-  </si>
-  <si>
-    <t>Лаб_6</t>
-  </si>
-  <si>
-    <t>Лаб_7</t>
+    <t>Л_1</t>
+  </si>
+  <si>
+    <t>Л_2</t>
+  </si>
+  <si>
+    <t>Л_3</t>
+  </si>
+  <si>
+    <t>Л_4</t>
+  </si>
+  <si>
+    <t>Л_5</t>
+  </si>
+  <si>
+    <t>Л_6</t>
+  </si>
+  <si>
+    <t>Л_7</t>
+  </si>
+  <si>
+    <t>Л_8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -211,15 +208,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -227,8 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -533,96 +528,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33:J34"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="6" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="10" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-    </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
+      <c r="D5" s="5">
+        <v>5</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
+      <c r="C6" s="4">
+        <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
       <c r="F6" s="6">
         <v>5</v>
       </c>
@@ -632,58 +634,61 @@
       <c r="H6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
-      <c r="E7" s="6">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5">
-        <v>5</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
+      <c r="C8" s="5">
+        <v>5</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
       <c r="H8" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -691,76 +696,66 @@
       <c r="D9" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5">
-        <v>5</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="H9" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
       <c r="H10" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5</v>
-      </c>
       <c r="D11" s="5">
         <v>5</v>
       </c>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="I11" s="5">
-        <v>5</v>
-      </c>
-      <c r="J11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
@@ -771,44 +766,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
+      <c r="C13" s="5">
+        <v>5</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="H13" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5</v>
-      </c>
       <c r="D14" s="5">
         <v>5</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
+      <c r="C15" s="5">
+        <v>5</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
@@ -819,14 +818,23 @@
       <c r="F15" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="G15" s="5">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C16" s="5">
         <v>5</v>
       </c>
@@ -839,23 +847,17 @@
       <c r="F16" s="6">
         <v>5</v>
       </c>
-      <c r="G16" s="5">
-        <v>5</v>
-      </c>
       <c r="H16" s="5">
         <v>5</v>
       </c>
-      <c r="I16" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C17" s="5">
         <v>5</v>
       </c>
@@ -868,64 +870,70 @@
       <c r="F17" s="6">
         <v>5</v>
       </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
       <c r="H17" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C18" s="5">
         <v>5</v>
       </c>
       <c r="D18" s="5">
         <v>5</v>
       </c>
-      <c r="E18" s="6">
-        <v>5</v>
-      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="6">
         <v>5</v>
       </c>
-      <c r="G18" s="5">
-        <v>5</v>
-      </c>
       <c r="H18" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C19" s="5">
         <v>5</v>
       </c>
       <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
       <c r="F19" s="6">
         <v>5</v>
       </c>
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
       <c r="H19" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C20" s="5">
         <v>5</v>
       </c>
@@ -944,14 +952,20 @@
       <c r="H20" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C21" s="5">
         <v>5</v>
       </c>
@@ -970,117 +984,123 @@
       <c r="H21" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="I21" s="5">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="5">
-        <v>5</v>
-      </c>
       <c r="D22" s="5">
         <v>5</v>
       </c>
-      <c r="E22" s="6">
-        <v>5</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="6">
         <v>5</v>
       </c>
-      <c r="G22" s="5">
-        <v>5</v>
-      </c>
       <c r="H22" s="5">
         <v>5</v>
       </c>
-      <c r="I22" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="J22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D23" s="5">
         <v>5</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="6">
-        <v>5</v>
-      </c>
-      <c r="H23" s="5">
-        <v>5</v>
-      </c>
-      <c r="J23" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
+      <c r="C24" s="5">
+        <v>5</v>
       </c>
       <c r="D24" s="5">
         <v>5</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="5">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5">
-        <v>5</v>
-      </c>
-      <c r="E25" s="6">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6">
-        <v>5</v>
-      </c>
-      <c r="G25" s="5">
-        <v>5</v>
-      </c>
-      <c r="H25" s="5">
-        <v>5</v>
-      </c>
-      <c r="J25" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>5</v>
+      </c>
+      <c r="J26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>5</v>
       </c>
       <c r="D27" s="5">
@@ -1095,17 +1115,17 @@
       <c r="H27" s="5">
         <v>5</v>
       </c>
-      <c r="J27" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D28" s="5">
         <v>5</v>
       </c>
@@ -1115,16 +1135,19 @@
       <c r="F28" s="6">
         <v>5</v>
       </c>
-      <c r="H28" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
+      <c r="C29" s="5">
+        <v>5</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
@@ -1138,15 +1161,21 @@
       <c r="G29" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="H29" s="5">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="C30">
         <v>5</v>
       </c>
       <c r="D30" s="5">
@@ -1164,56 +1193,65 @@
       <c r="H30" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="J30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="5">
-        <v>5</v>
-      </c>
-      <c r="E31" s="6">
-        <v>5</v>
-      </c>
-      <c r="F31" s="6">
-        <v>5</v>
-      </c>
-      <c r="G31" s="5">
-        <v>5</v>
-      </c>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="H31" s="5">
         <v>5</v>
       </c>
-      <c r="J31" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="D32" s="5">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5">
+        <v>5</v>
+      </c>
       <c r="H32" s="5">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C33" s="5">
         <v>5</v>
       </c>
@@ -1226,54 +1264,22 @@
       <c r="F33" s="6">
         <v>5</v>
       </c>
-      <c r="G33" s="5">
-        <v>5</v>
-      </c>
       <c r="H33" s="5">
         <v>5</v>
       </c>
+      <c r="I33" s="5">
+        <v>5</v>
+      </c>
       <c r="J33" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="5">
-        <v>5</v>
-      </c>
-      <c r="D34" s="5">
-        <v>5</v>
-      </c>
-      <c r="E34" s="6">
-        <v>5</v>
-      </c>
-      <c r="F34" s="6">
-        <v>5</v>
-      </c>
-      <c r="H34" s="5">
-        <v>5</v>
-      </c>
-      <c r="I34" s="5">
-        <v>5</v>
-      </c>
-      <c r="J34" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="C1:W1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C12A8C-B68B-4E90-9021-8EA631871733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF12F1F-2681-4CE2-AA26-E1B37BE1C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Аушев Исмаил</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Язева Александра</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
     <t>Л_1</t>
   </si>
   <si>
@@ -137,6 +134,18 @@
   </si>
   <si>
     <t>Л_8</t>
+  </si>
+  <si>
+    <t>Тест_1</t>
+  </si>
+  <si>
+    <t>Тест_2</t>
+  </si>
+  <si>
+    <t>Тест_3</t>
+  </si>
+  <si>
+    <t>Тест_4</t>
   </si>
 </sst>
 </file>
@@ -528,88 +537,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K34"/>
+  <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
-    <col min="4" max="10" width="3.6328125" customWidth="1"/>
+    <col min="3" max="6" width="6.1796875" customWidth="1"/>
+    <col min="7" max="13" width="3.6328125" customWidth="1"/>
+    <col min="14" max="14" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
       <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="H5" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -619,45 +644,51 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
       <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="5">
-        <v>5</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6">
         <v>5</v>
       </c>
       <c r="J6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -667,23 +698,23 @@
       <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
-        <v>5</v>
-      </c>
       <c r="G8" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -693,16 +724,16 @@
       <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -712,61 +743,67 @@
       <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
       <c r="G10" s="5">
         <v>5</v>
       </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6">
         <v>5</v>
       </c>
       <c r="J10" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="K10" s="5">
+        <v>5</v>
+      </c>
+      <c r="L10" s="5">
+        <v>5</v>
+      </c>
+      <c r="M10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -776,30 +813,30 @@
       <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="6">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -809,26 +846,26 @@
       <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="6">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6">
-        <v>5</v>
-      </c>
       <c r="G15" s="5">
         <v>5</v>
       </c>
-      <c r="H15" s="5">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H15" s="6">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
+      <c r="K15" s="5">
+        <v>5</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -838,20 +875,20 @@
       <c r="C16" s="5">
         <v>5</v>
       </c>
-      <c r="D16" s="5">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <v>5</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
+        <v>5</v>
+      </c>
+      <c r="K16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -861,23 +898,23 @@
       <c r="C17" s="5">
         <v>5</v>
       </c>
-      <c r="D17" s="5">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6">
-        <v>5</v>
-      </c>
       <c r="G17" s="5">
         <v>5</v>
       </c>
-      <c r="H17" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>5</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -887,18 +924,18 @@
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="5">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6">
-        <v>5</v>
-      </c>
-      <c r="H18" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -908,26 +945,32 @@
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="5">
-        <v>5</v>
-      </c>
-      <c r="E19" s="6">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
         <v>5</v>
       </c>
       <c r="G19" s="5">
         <v>5</v>
       </c>
-      <c r="H19" s="5">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5</v>
+      </c>
+      <c r="K19" s="5">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -937,29 +980,29 @@
       <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D20" s="5">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6">
-        <v>5</v>
-      </c>
       <c r="G20" s="5">
         <v>5</v>
       </c>
-      <c r="H20" s="5">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6">
+        <v>5</v>
+      </c>
+      <c r="J20" s="5">
+        <v>5</v>
+      </c>
+      <c r="K20" s="5">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -969,63 +1012,69 @@
       <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="5">
-        <v>5</v>
-      </c>
-      <c r="E21" s="6">
-        <v>5</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>5</v>
       </c>
       <c r="G21" s="5">
         <v>5</v>
       </c>
-      <c r="H21" s="5">
-        <v>5</v>
-      </c>
-      <c r="I21" s="5">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H21" s="6">
+        <v>5</v>
+      </c>
+      <c r="I21" s="6">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5</v>
+      </c>
+      <c r="K21" s="5">
+        <v>5</v>
+      </c>
+      <c r="L21" s="5">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="5">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="6">
-        <v>5</v>
-      </c>
-      <c r="H22" s="5">
-        <v>5</v>
-      </c>
-      <c r="J22" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G22" s="5">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="6">
+        <v>5</v>
+      </c>
+      <c r="K22" s="5">
+        <v>5</v>
+      </c>
+      <c r="M22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="G23" s="5">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1035,39 +1084,48 @@
       <c r="C24" s="5">
         <v>5</v>
       </c>
-      <c r="D24" s="5">
-        <v>5</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <v>5</v>
       </c>
       <c r="G24" s="5">
         <v>5</v>
       </c>
-      <c r="H24" s="5">
-        <v>5</v>
-      </c>
-      <c r="I24">
+      <c r="H24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="6">
         <v>5</v>
       </c>
       <c r="J24" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="K24" s="5">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1077,23 +1135,26 @@
       <c r="C26" s="5">
         <v>5</v>
       </c>
-      <c r="D26" s="5">
-        <v>5</v>
-      </c>
-      <c r="E26" s="6">
-        <v>5</v>
-      </c>
-      <c r="F26" s="6">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5</v>
-      </c>
-      <c r="J26" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="G26" s="5">
+        <v>5</v>
+      </c>
+      <c r="H26" s="6">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6">
+        <v>5</v>
+      </c>
+      <c r="K26" s="5">
+        <v>5</v>
+      </c>
+      <c r="M26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1103,43 +1164,52 @@
       <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27" s="5">
-        <v>5</v>
-      </c>
-      <c r="E27" s="6">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6">
-        <v>5</v>
-      </c>
-      <c r="H27" s="5">
-        <v>5</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6">
+        <v>5</v>
+      </c>
+      <c r="K27" s="5">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="5">
-        <v>5</v>
-      </c>
-      <c r="E28" s="6">
-        <v>5</v>
-      </c>
-      <c r="F28" s="6">
-        <v>5</v>
-      </c>
       <c r="G28" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H28" s="6">
+        <v>5</v>
+      </c>
+      <c r="I28" s="6">
+        <v>5</v>
+      </c>
+      <c r="J28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1149,26 +1219,32 @@
       <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29" s="5">
-        <v>5</v>
-      </c>
-      <c r="E29" s="6">
-        <v>5</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
         <v>5</v>
       </c>
       <c r="G29" s="5">
         <v>5</v>
       </c>
-      <c r="H29" s="5">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H29" s="6">
+        <v>5</v>
+      </c>
+      <c r="I29" s="6">
+        <v>5</v>
+      </c>
+      <c r="J29" s="5">
+        <v>5</v>
+      </c>
+      <c r="K29" s="5">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1178,26 +1254,26 @@
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="5">
-        <v>5</v>
-      </c>
-      <c r="E30" s="6">
-        <v>5</v>
-      </c>
-      <c r="F30" s="6">
-        <v>5</v>
-      </c>
       <c r="G30" s="5">
         <v>5</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="6">
+        <v>5</v>
+      </c>
+      <c r="I30" s="6">
         <v>5</v>
       </c>
       <c r="J30" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="K30" s="5">
+        <v>5</v>
+      </c>
+      <c r="M30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1207,13 +1283,13 @@
       <c r="C31" s="5">
         <v>5</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="K31" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1223,29 +1299,35 @@
       <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="D32" s="5">
-        <v>5</v>
-      </c>
-      <c r="E32" s="6">
-        <v>5</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
         <v>5</v>
       </c>
       <c r="G32" s="5">
         <v>5</v>
       </c>
-      <c r="H32" s="5">
-        <v>5</v>
-      </c>
-      <c r="I32">
+      <c r="H32" s="6">
+        <v>5</v>
+      </c>
+      <c r="I32" s="6">
         <v>5</v>
       </c>
       <c r="J32" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+      <c r="K32" s="5">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1255,28 +1337,34 @@
       <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D33" s="5">
-        <v>5</v>
-      </c>
-      <c r="E33" s="6">
-        <v>5</v>
-      </c>
-      <c r="F33" s="6">
-        <v>5</v>
-      </c>
-      <c r="H33" s="5">
-        <v>5</v>
-      </c>
-      <c r="I33" s="5">
-        <v>5</v>
-      </c>
-      <c r="J33" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="G33" s="5">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6">
+        <v>5</v>
+      </c>
+      <c r="I33" s="6">
+        <v>5</v>
+      </c>
+      <c r="K33" s="5">
+        <v>5</v>
+      </c>
+      <c r="L33" s="5">
+        <v>5</v>
+      </c>
+      <c r="M33" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-221\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF12F1F-2681-4CE2-AA26-E1B37BE1C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67C80EB-151B-4B49-9F0A-336CC5E5C781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,10 +540,10 @@
   <dimension ref="A2:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -650,6 +650,9 @@
       <c r="E6">
         <v>5</v>
       </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
       <c r="G6" s="5">
         <v>5</v>
       </c>
@@ -846,6 +849,9 @@
       <c r="C15" s="5">
         <v>5</v>
       </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
       <c r="G15" s="5">
         <v>5</v>
       </c>
@@ -1303,6 +1309,9 @@
         <v>5</v>
       </c>
       <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
         <v>5</v>
       </c>
       <c r="G32" s="5">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67C80EB-151B-4B49-9F0A-336CC5E5C781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D948E49B-A3AC-4F5A-82CD-2110F3DA76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Аушев Исмаил</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Тест_4</t>
+  </si>
+  <si>
+    <t>Л_9</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,6 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,13 +541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N34"/>
+  <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -555,7 +559,7 @@
     <col min="14" max="14" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>38</v>
       </c>
@@ -592,12 +596,15 @@
       <c r="N2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -607,7 +614,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -634,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -674,8 +681,11 @@
       <c r="M6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -691,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -717,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -736,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -774,7 +784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -790,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -806,7 +816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -822,7 +832,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -839,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -871,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D948E49B-A3AC-4F5A-82CD-2110F3DA76FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C233DB-5927-4BD3-AA7A-5F901B24C9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,7 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,11 +542,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -621,10 +620,10 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
         <v>5</v>
       </c>
       <c r="G5" s="5">
@@ -651,13 +650,13 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
         <v>5</v>
       </c>
       <c r="G6" s="5">
@@ -675,13 +674,13 @@
       <c r="K6" s="5">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>5</v>
       </c>
       <c r="M6" s="5">
         <v>5</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <v>5</v>
       </c>
     </row>
@@ -756,10 +755,10 @@
       <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
         <v>5</v>
       </c>
       <c r="G10" s="5">
@@ -859,7 +858,7 @@
       <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>5</v>
       </c>
       <c r="G15" s="5">
@@ -961,10 +960,10 @@
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
         <v>5</v>
       </c>
       <c r="G19" s="5">
@@ -982,7 +981,7 @@
       <c r="K19" s="5">
         <v>5</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1011,10 +1010,10 @@
       <c r="K20" s="5">
         <v>5</v>
       </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
+      <c r="L20" s="5">
+        <v>5</v>
+      </c>
+      <c r="M20" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1028,10 +1027,10 @@
       <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5">
         <v>5</v>
       </c>
       <c r="G21" s="5">
@@ -1052,7 +1051,7 @@
       <c r="L21" s="5">
         <v>5</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1100,13 +1099,13 @@
       <c r="C24" s="5">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5">
         <v>5</v>
       </c>
       <c r="G24" s="5">
@@ -1124,7 +1123,7 @@
       <c r="K24" s="5">
         <v>5</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="5">
         <v>5</v>
       </c>
       <c r="M24" s="5">
@@ -1151,7 +1150,7 @@
       <c r="C26" s="5">
         <v>5</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>5</v>
       </c>
       <c r="G26" s="5">
@@ -1177,16 +1176,16 @@
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>5</v>
+      </c>
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+      <c r="F27" s="5">
         <v>5</v>
       </c>
       <c r="G27" s="5">
@@ -1201,7 +1200,7 @@
       <c r="K27" s="5">
         <v>5</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1235,10 +1234,10 @@
       <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="5">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5">
         <v>5</v>
       </c>
       <c r="G29" s="5">
@@ -1256,7 +1255,7 @@
       <c r="K29" s="5">
         <v>5</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1267,7 +1266,7 @@
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>5</v>
       </c>
       <c r="G30" s="5">
@@ -1315,13 +1314,13 @@
       <c r="C32" s="5">
         <v>5</v>
       </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
+      <c r="D32" s="5">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5">
         <v>5</v>
       </c>
       <c r="G32" s="5">
@@ -1339,7 +1338,7 @@
       <c r="K32" s="5">
         <v>5</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="5">
         <v>5</v>
       </c>
       <c r="M32" s="5">
@@ -1356,10 +1355,10 @@
       <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="5">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5">
         <v>5</v>
       </c>
       <c r="G33" s="5">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-221\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C233DB-5927-4BD3-AA7A-5F901B24C9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8EC0E-E217-448E-BC48-1B14F2C4B014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,6 +242,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,10 +551,10 @@
   <dimension ref="A2:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -680,6 +688,9 @@
       <c r="M6" s="5">
         <v>5</v>
       </c>
+      <c r="N6" s="7">
+        <v>5</v>
+      </c>
       <c r="O6" s="5">
         <v>5</v>
       </c>
@@ -725,6 +736,9 @@
       <c r="K8" s="5">
         <v>5</v>
       </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -782,6 +796,9 @@
       <c r="M10" s="5">
         <v>5</v>
       </c>
+      <c r="N10" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -902,6 +919,12 @@
       <c r="K16" s="5">
         <v>5</v>
       </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -928,6 +951,9 @@
       <c r="K17" s="5">
         <v>5</v>
       </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -966,6 +992,9 @@
       <c r="E19" s="5">
         <v>5</v>
       </c>
+      <c r="F19" s="7">
+        <v>5</v>
+      </c>
       <c r="G19" s="5">
         <v>5</v>
       </c>
@@ -982,6 +1011,9 @@
         <v>5</v>
       </c>
       <c r="M19" s="5">
+        <v>5</v>
+      </c>
+      <c r="N19" s="8">
         <v>5</v>
       </c>
     </row>
@@ -1049,6 +1081,9 @@
         <v>5</v>
       </c>
       <c r="L21" s="5">
+        <v>5</v>
+      </c>
+      <c r="M21" s="7">
         <v>5</v>
       </c>
       <c r="N21" s="5">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8EC0E-E217-448E-BC48-1B14F2C4B014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7923FDCC-D983-41A8-87CD-420604E146D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Аушев Исмаил</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Л_9</t>
+  </si>
+  <si>
+    <t>Л_10</t>
+  </si>
+  <si>
+    <t>Л_11</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -243,7 +249,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,13 +553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O34"/>
+  <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -563,10 +568,11 @@
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
     <col min="3" max="6" width="6.1796875" customWidth="1"/>
     <col min="7" max="13" width="3.6328125" customWidth="1"/>
-    <col min="14" max="14" width="4" customWidth="1"/>
+    <col min="14" max="15" width="4" customWidth="1"/>
+    <col min="16" max="17" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>38</v>
       </c>
@@ -606,12 +612,18 @@
       <c r="O2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -621,7 +633,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -648,7 +660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -694,8 +706,11 @@
       <c r="O6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -711,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -740,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -759,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -799,8 +814,17 @@
       <c r="N10" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="7">
+        <v>5</v>
+      </c>
+      <c r="P10" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -816,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -832,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -847,8 +871,11 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -865,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -897,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -925,8 +952,11 @@
       <c r="N16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -955,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -976,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1013,11 +1043,17 @@
       <c r="M19" s="5">
         <v>5</v>
       </c>
-      <c r="N19" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="7">
+        <v>5</v>
+      </c>
+      <c r="O19" s="7">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1048,8 +1084,11 @@
       <c r="M20" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1089,8 +1128,17 @@
       <c r="N21" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="7">
+        <v>5</v>
+      </c>
+      <c r="P21" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1111,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1124,7 +1172,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1164,8 +1212,14 @@
       <c r="M24" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="7">
+        <v>5</v>
+      </c>
+      <c r="O24" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1175,7 +1229,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1203,8 +1257,14 @@
       <c r="M26" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1238,8 +1298,14 @@
       <c r="M27" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1259,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1290,11 +1356,23 @@
       <c r="K29" s="5">
         <v>5</v>
       </c>
+      <c r="L29" s="7">
+        <v>5</v>
+      </c>
       <c r="M29" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="7">
+        <v>5</v>
+      </c>
+      <c r="O29" s="7">
+        <v>5</v>
+      </c>
+      <c r="P29" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1323,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1339,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1377,6 +1455,9 @@
         <v>5</v>
       </c>
       <c r="M32" s="5">
+        <v>5</v>
+      </c>
+      <c r="P32" s="7">
         <v>5</v>
       </c>
     </row>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7923FDCC-D983-41A8-87CD-420604E146D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4813AF0-60C0-4F33-9AA9-35448A41E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -249,6 +249,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -556,10 +557,10 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -790,6 +791,9 @@
       <c r="E10" s="5">
         <v>5</v>
       </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
       <c r="G10" s="5">
         <v>5</v>
       </c>
@@ -866,6 +870,9 @@
       <c r="C13" s="5">
         <v>5</v>
       </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
       <c r="G13" s="5">
         <v>5</v>
       </c>
@@ -882,6 +889,9 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
       <c r="G14" s="5">
         <v>5</v>
       </c>
@@ -934,6 +944,15 @@
       <c r="C16" s="5">
         <v>5</v>
       </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
       <c r="G16" s="5">
         <v>5</v>
       </c>
@@ -966,6 +985,12 @@
       <c r="C17" s="5">
         <v>5</v>
       </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
       <c r="G17" s="5">
         <v>5</v>
       </c>
@@ -1104,6 +1129,9 @@
       <c r="E21" s="5">
         <v>5</v>
       </c>
+      <c r="F21" s="7">
+        <v>5</v>
+      </c>
       <c r="G21" s="5">
         <v>5</v>
       </c>
@@ -1242,6 +1270,12 @@
       <c r="D26" s="5">
         <v>5</v>
       </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
       <c r="G26" s="5">
         <v>5</v>
       </c>
@@ -1475,6 +1509,9 @@
         <v>5</v>
       </c>
       <c r="E33" s="5">
+        <v>5</v>
+      </c>
+      <c r="F33" s="8">
         <v>5</v>
       </c>
       <c r="G33" s="5">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4813AF0-60C0-4F33-9AA9-35448A41E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125D9D33-CEA3-4864-ACFB-615B1C27AD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -249,7 +249,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -560,7 +559,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1246,6 +1245,9 @@
       <c r="O24" s="7">
         <v>5</v>
       </c>
+      <c r="P24" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1511,7 +1513,7 @@
       <c r="E33" s="5">
         <v>5</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>5</v>
       </c>
       <c r="G33" s="5">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3AA55C-F26A-4E6E-938C-A36C9B893CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA07BC9-A39F-4955-8495-88DD3615389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,19 @@
     <sheet name="Lebedeva YU. V." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -559,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S34"/>
+  <dimension ref="A2:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -579,7 +592,7 @@
     <col min="18" max="19" width="5.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>41</v>
       </c>
@@ -632,11 +645,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -658,8 +671,12 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <f>SUM(C4:S4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -699,8 +716,12 @@
       <c r="Q5" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <f t="shared" ref="T5:T33" si="0">SUM(C5:S5)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -755,8 +776,12 @@
       <c r="R6" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -782,8 +807,12 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -819,8 +848,12 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -850,8 +883,12 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -906,8 +943,12 @@
       <c r="R10" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -933,8 +974,12 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -960,8 +1005,12 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -991,8 +1040,12 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1022,8 +1075,12 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1072,8 +1129,12 @@
       <c r="R15" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1124,8 +1185,12 @@
       <c r="R16" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1165,8 +1230,12 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1208,8 +1277,12 @@
         <v>5</v>
       </c>
       <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1262,8 +1335,12 @@
       <c r="R19" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1312,8 +1389,12 @@
       <c r="R20" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1368,8 +1449,12 @@
       <c r="R21" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1405,8 +1490,12 @@
         <v>5</v>
       </c>
       <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1430,8 +1519,12 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1486,8 +1579,12 @@
       <c r="R24" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1509,8 +1606,12 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1561,8 +1662,12 @@
       <c r="R26" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1611,8 +1716,12 @@
       <c r="R27" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1642,8 +1751,12 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1698,8 +1811,12 @@
       <c r="R29" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1735,8 +1852,12 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1762,8 +1883,12 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1815,8 +1940,12 @@
       <c r="Q32" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1864,13 +1993,29 @@
         <v>5</v>
       </c>
       <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="1:17" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="T4:T33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA07BC9-A39F-4955-8495-88DD3615389C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12C5D3-4451-41DF-B421-CB52D418BDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,11 +574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -657,23 +657,43 @@
         <v>0</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6">
+        <v>5</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="T4">
         <f>SUM(C4:S4)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -797,19 +817,33 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6">
+        <v>5</v>
+      </c>
       <c r="K7" s="4">
         <v>5</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="L7" s="6">
+        <v>5</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6">
+        <v>5</v>
+      </c>
+      <c r="O7" s="6">
+        <v>5</v>
+      </c>
+      <c r="P7" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>10</v>
+      </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -840,17 +874,28 @@
       <c r="K8" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <v>5</v>
+      </c>
       <c r="M8" s="6">
         <v>5</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="N8" s="6">
+        <v>5</v>
+      </c>
+      <c r="O8" s="6">
+        <v>5</v>
+      </c>
+      <c r="P8" s="6">
+        <v>5</v>
+      </c>
       <c r="Q8" s="6"/>
+      <c r="R8" s="6">
+        <v>5</v>
+      </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -880,12 +925,18 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="O9" s="6">
+        <v>5</v>
+      </c>
+      <c r="P9" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>10</v>
+      </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -964,19 +1015,33 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6">
+        <v>5</v>
+      </c>
       <c r="K11" s="4">
         <v>5</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6">
+        <v>5</v>
+      </c>
+      <c r="P11" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>10</v>
+      </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,10 +1341,15 @@
       <c r="P18" s="6">
         <v>5</v>
       </c>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="6">
+        <v>5</v>
+      </c>
+      <c r="R18" s="6">
+        <v>5</v>
+      </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1381,17 +1451,21 @@
         <v>5</v>
       </c>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="6">
+        <v>5</v>
+      </c>
       <c r="P20" s="6">
         <v>5</v>
       </c>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="6">
+        <v>5</v>
+      </c>
       <c r="R20" s="6">
         <v>5</v>
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1478,21 +1552,27 @@
       <c r="K22" s="4">
         <v>5</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6">
+        <v>5</v>
+      </c>
       <c r="M22" s="4">
         <v>5</v>
       </c>
-      <c r="N22" s="6"/>
+      <c r="N22" s="6">
+        <v>5</v>
+      </c>
       <c r="O22" s="6">
         <v>5</v>
       </c>
       <c r="P22" s="6">
         <v>5</v>
       </c>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="6">
+        <v>10</v>
+      </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1783,9 @@
       <c r="M27" s="4">
         <v>5</v>
       </c>
-      <c r="N27" s="6"/>
+      <c r="N27" s="6">
+        <v>5</v>
+      </c>
       <c r="O27" s="6">
         <v>5</v>
       </c>
@@ -1718,7 +1800,7 @@
       </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1728,10 +1810,18 @@
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="6">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5</v>
+      </c>
       <c r="G28" s="4">
         <v>5</v>
       </c>
@@ -1744,16 +1834,33 @@
       <c r="J28" s="4">
         <v>5</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="K28" s="6">
+        <v>5</v>
+      </c>
+      <c r="L28" s="6">
+        <v>5</v>
+      </c>
+      <c r="M28" s="6">
+        <v>5</v>
+      </c>
+      <c r="N28" s="6">
+        <v>5</v>
+      </c>
+      <c r="O28" s="6">
+        <v>5</v>
+      </c>
+      <c r="P28" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>5</v>
+      </c>
+      <c r="R28" s="6">
+        <v>5</v>
+      </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1973,7 +2080,9 @@
       <c r="I33" s="5">
         <v>5</v>
       </c>
-      <c r="J33" s="6"/>
+      <c r="J33" s="6">
+        <v>5</v>
+      </c>
       <c r="K33" s="4">
         <v>5</v>
       </c>
@@ -1995,7 +2104,7 @@
       <c r="Q33" s="6"/>
       <c r="T33">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="13" thickTop="1" x14ac:dyDescent="0.25">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12C5D3-4451-41DF-B421-CB52D418BDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6841DDA-8401-498A-B66F-65C758F7325F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Аушев Исмаил</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Л_13</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>75%=60</t>
   </si>
 </sst>
 </file>
@@ -572,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T34"/>
+  <dimension ref="A2:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -592,7 +598,7 @@
     <col min="18" max="19" width="5.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>41</v>
       </c>
@@ -644,12 +650,15 @@
       <c r="S2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -696,7 +705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -741,7 +750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -800,8 +809,11 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -846,7 +858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -897,8 +909,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -939,7 +954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -998,8 +1013,11 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1044,7 +1062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1075,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1110,7 +1128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1145,7 +1163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1198,8 +1216,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1254,8 +1275,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1300,7 +1324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1351,8 +1375,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1409,8 +1436,11 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1467,8 +1497,11 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1527,8 +1560,11 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1575,7 +1611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1604,7 +1640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1663,8 +1699,11 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1691,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1746,8 +1785,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1802,8 +1844,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1862,8 +1907,11 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1922,8 +1970,11 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1964,7 +2015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1995,7 +2046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2051,8 +2102,11 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2106,8 +2160,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6841DDA-8401-498A-B66F-65C758F7325F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D378A-3376-4212-BE7F-6B2FF6D3D4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:V34"/>
+  <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -598,7 +598,7 @@
     <col min="18" max="19" width="5.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>41</v>
       </c>
@@ -654,11 +654,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -704,8 +704,14 @@
         <f>SUM(C4:S4)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W4">
+        <v>23</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -749,8 +755,11 @@
         <f t="shared" ref="T5:T33" si="0">SUM(C5:S5)</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="V6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -857,8 +869,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -912,8 +927,11 @@
       <c r="V8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -953,8 +971,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1016,8 +1037,11 @@
       <c r="V10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1061,8 +1085,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1092,8 +1119,11 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1127,8 +1157,14 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W13">
+        <v>18</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1162,8 +1198,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1219,8 +1258,11 @@
       <c r="V15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1278,8 +1320,11 @@
       <c r="V16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1323,8 +1368,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1378,8 +1426,11 @@
       <c r="V18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1439,8 +1490,11 @@
       <c r="V19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1500,8 +1554,11 @@
       <c r="V20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1563,8 +1620,11 @@
       <c r="V21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1610,8 +1670,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1639,8 +1702,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1702,8 +1768,11 @@
       <c r="V24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1729,8 +1798,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W25">
+        <v>26</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1788,8 +1863,11 @@
       <c r="V26" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1847,8 +1925,11 @@
       <c r="V27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1910,8 +1991,11 @@
       <c r="V28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1973,8 +2057,11 @@
       <c r="V29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2014,8 +2101,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2045,8 +2135,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W31">
+        <v>17</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2105,8 +2201,11 @@
       <c r="V32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2163,8 +2262,11 @@
       <c r="V33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D378A-3376-4212-BE7F-6B2FF6D3D4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA5702C-3B5F-4D5E-81D4-1597CFBD1AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,10 +581,10 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -758,6 +758,9 @@
       <c r="W5">
         <v>20</v>
       </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -872,6 +875,9 @@
       <c r="W7">
         <v>19</v>
       </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -973,6 +979,9 @@
       </c>
       <c r="W9">
         <v>21</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1087,6 +1096,9 @@
       </c>
       <c r="W11">
         <v>9</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1121,6 +1133,9 @@
       </c>
       <c r="W12">
         <v>6</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1201,6 +1216,9 @@
       <c r="W14">
         <v>24</v>
       </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1371,6 +1389,9 @@
       <c r="W17">
         <v>12</v>
       </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1672,6 +1693,9 @@
       </c>
       <c r="W22">
         <v>3</v>
+      </c>
+      <c r="X22">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA5702C-3B5F-4D5E-81D4-1597CFBD1AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC954D65-6C89-4F62-8F5A-D8B0FBF2959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,10 +581,10 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:B23"/>
+      <selection pane="bottomRight" activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1791,9 +1791,6 @@
       </c>
       <c r="V24" t="s">
         <v>47</v>
-      </c>
-      <c r="X24">
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC954D65-6C89-4F62-8F5A-D8B0FBF2959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40329003-17D9-4BB0-BC7F-A4C9864A0A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,10 +581,10 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X24" sqref="X24"/>
+      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1718,16 +1718,17 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
       <c r="T23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="W23">
         <v>1</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1791,6 +1792,9 @@
       </c>
       <c r="V24" t="s">
         <v>47</v>
+      </c>
+      <c r="X24">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40329003-17D9-4BB0-BC7F-A4C9864A0A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0119335C-560E-41A1-99E8-11F28FED6D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,10 +581,10 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
+      <selection pane="bottomRight" activeCell="X11" sqref="B11:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2298,6 +2298,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="T4:T33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-221/2ИСИП-221_Сети.xlsx
+++ b/2ИСИП-221/2ИСИП-221_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0119335C-560E-41A1-99E8-11F28FED6D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A533C70-2A0B-41AB-AEDB-D3A747A887F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,18 +204,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -257,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -266,14 +260,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -581,10 +571,10 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X11" sqref="B11:X11"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -665,41 +655,43 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6">
-        <v>5</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5</v>
-      </c>
-      <c r="J4" s="6">
-        <v>5</v>
-      </c>
-      <c r="K4" s="6">
-        <v>5</v>
-      </c>
-      <c r="L4" s="6">
-        <v>5</v>
-      </c>
-      <c r="M4" s="6">
-        <v>5</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
       <c r="T4">
         <f>SUM(C4:S4)</f>
         <v>50</v>
@@ -718,37 +710,47 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4">
-        <v>5</v>
-      </c>
-      <c r="K5" s="4">
-        <v>5</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6">
-        <v>5</v>
-      </c>
-      <c r="P5" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="6">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <v>5</v>
+      </c>
+      <c r="P5" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="5">
         <v>5</v>
       </c>
       <c r="T5">
@@ -772,49 +774,49 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>5</v>
-      </c>
-      <c r="I6" s="5">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4">
-        <v>5</v>
-      </c>
-      <c r="K6" s="4">
-        <v>5</v>
-      </c>
-      <c r="L6" s="4">
-        <v>5</v>
-      </c>
-      <c r="M6" s="4">
-        <v>5</v>
-      </c>
-      <c r="N6" s="6">
-        <v>5</v>
-      </c>
-      <c r="O6" s="4">
-        <v>5</v>
-      </c>
-      <c r="P6" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>5</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>5</v>
+      </c>
+      <c r="N6" s="5">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>5</v>
+      </c>
+      <c r="R6" s="5">
         <v>5</v>
       </c>
       <c r="T6">
@@ -835,37 +837,49 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4">
-        <v>5</v>
-      </c>
-      <c r="L7" s="6">
-        <v>5</v>
-      </c>
-      <c r="M7" s="6">
-        <v>5</v>
-      </c>
-      <c r="N7" s="6">
-        <v>5</v>
-      </c>
-      <c r="O7" s="6">
-        <v>5</v>
-      </c>
-      <c r="P7" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="6">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5</v>
+      </c>
+      <c r="M7" s="5">
+        <v>5</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5">
+        <v>5</v>
+      </c>
+      <c r="P7" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5">
         <v>10</v>
       </c>
       <c r="T7">
@@ -886,44 +900,50 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>5</v>
-      </c>
-      <c r="L8" s="6">
-        <v>5</v>
-      </c>
-      <c r="M8" s="6">
-        <v>5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>5</v>
-      </c>
-      <c r="O8" s="6">
-        <v>5</v>
-      </c>
-      <c r="P8" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6">
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5</v>
+      </c>
+      <c r="M8" s="5">
+        <v>5</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5</v>
+      </c>
+      <c r="O8" s="5">
+        <v>5</v>
+      </c>
+      <c r="P8" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5">
         <v>5</v>
       </c>
       <c r="T8">
@@ -944,33 +964,47 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4">
-        <v>5</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6">
-        <v>5</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6">
-        <v>5</v>
-      </c>
-      <c r="P9" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="6">
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="5">
         <v>10</v>
       </c>
       <c r="T9">
@@ -991,52 +1025,52 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>5</v>
-      </c>
-      <c r="J10" s="4">
-        <v>5</v>
-      </c>
-      <c r="K10" s="4">
-        <v>5</v>
-      </c>
-      <c r="L10" s="4">
-        <v>5</v>
-      </c>
-      <c r="M10" s="4">
-        <v>5</v>
-      </c>
-      <c r="N10" s="6">
-        <v>5</v>
-      </c>
-      <c r="O10" s="6">
-        <v>5</v>
-      </c>
-      <c r="P10" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>5</v>
-      </c>
-      <c r="R10" s="6">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5</v>
+      </c>
+      <c r="N10" s="5">
+        <v>5</v>
+      </c>
+      <c r="O10" s="5">
+        <v>5</v>
+      </c>
+      <c r="P10" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>5</v>
+      </c>
+      <c r="R10" s="5">
         <v>5</v>
       </c>
       <c r="T10">
@@ -1057,37 +1091,49 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6">
-        <v>5</v>
-      </c>
-      <c r="K11" s="4">
-        <v>5</v>
-      </c>
-      <c r="L11" s="6">
-        <v>5</v>
-      </c>
-      <c r="M11" s="6">
-        <v>5</v>
-      </c>
-      <c r="N11" s="6">
-        <v>5</v>
-      </c>
-      <c r="O11" s="6">
-        <v>5</v>
-      </c>
-      <c r="P11" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="6">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5</v>
+      </c>
+      <c r="M11" s="5">
+        <v>5</v>
+      </c>
+      <c r="N11" s="5">
+        <v>5</v>
+      </c>
+      <c r="O11" s="5">
+        <v>5</v>
+      </c>
+      <c r="P11" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="5">
         <v>10</v>
       </c>
       <c r="T11">
@@ -1108,25 +1154,43 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="4">
-        <v>5</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
       <c r="T12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1145,29 +1209,43 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4">
-        <v>5</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6">
-        <v>5</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>5</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="T13">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1186,29 +1264,43 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5">
-        <v>5</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
       <c r="T14">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1227,46 +1319,52 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>5</v>
-      </c>
-      <c r="I15" s="5">
-        <v>5</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4">
-        <v>5</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6">
-        <v>5</v>
-      </c>
-      <c r="O15" s="6">
-        <v>5</v>
-      </c>
-      <c r="P15" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>5</v>
-      </c>
-      <c r="R15" s="6">
+      <c r="C15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>5</v>
+      </c>
+      <c r="O15" s="5">
+        <v>5</v>
+      </c>
+      <c r="P15" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>5</v>
+      </c>
+      <c r="R15" s="5">
         <v>5</v>
       </c>
       <c r="T15">
@@ -1287,48 +1385,50 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5">
-        <v>5</v>
-      </c>
-      <c r="I16" s="5">
-        <v>5</v>
-      </c>
-      <c r="J16" s="6">
-        <v>5</v>
-      </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6">
-        <v>5</v>
-      </c>
-      <c r="N16" s="6">
-        <v>5</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>5</v>
-      </c>
-      <c r="R16" s="6">
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>5</v>
+      </c>
+      <c r="N16" s="5">
+        <v>5</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>5</v>
+      </c>
+      <c r="R16" s="5">
         <v>5</v>
       </c>
       <c r="T16">
@@ -1349,39 +1449,43 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5">
-        <v>5</v>
-      </c>
-      <c r="I17" s="5">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4">
-        <v>5</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6">
-        <v>5</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="T17">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1400,44 +1504,52 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6">
-        <v>5</v>
-      </c>
-      <c r="E18" s="6">
-        <v>5</v>
-      </c>
-      <c r="F18" s="6">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>5</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5">
-        <v>5</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="4">
-        <v>5</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6">
-        <v>5</v>
-      </c>
-      <c r="O18" s="6">
-        <v>5</v>
-      </c>
-      <c r="P18" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>5</v>
-      </c>
-      <c r="R18" s="6">
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>5</v>
+      </c>
+      <c r="O18" s="5">
+        <v>5</v>
+      </c>
+      <c r="P18" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>5</v>
+      </c>
+      <c r="R18" s="5">
         <v>5</v>
       </c>
       <c r="T18">
@@ -1458,50 +1570,52 @@
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4">
-        <v>5</v>
-      </c>
-      <c r="K19" s="4">
-        <v>5</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="4">
-        <v>5</v>
-      </c>
-      <c r="N19" s="6">
-        <v>5</v>
-      </c>
-      <c r="O19" s="6">
-        <v>5</v>
-      </c>
-      <c r="P19" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>5</v>
-      </c>
-      <c r="R19" s="6">
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>5</v>
+      </c>
+      <c r="N19" s="5">
+        <v>5</v>
+      </c>
+      <c r="O19" s="5">
+        <v>5</v>
+      </c>
+      <c r="P19" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>5</v>
+      </c>
+      <c r="R19" s="5">
         <v>5</v>
       </c>
       <c r="T19">
@@ -1522,50 +1636,50 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6">
-        <v>5</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4">
-        <v>5</v>
-      </c>
-      <c r="H20" s="5">
-        <v>5</v>
-      </c>
-      <c r="I20" s="5">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4">
-        <v>5</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5</v>
-      </c>
-      <c r="L20" s="4">
-        <v>5</v>
-      </c>
-      <c r="M20" s="4">
-        <v>5</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6">
-        <v>5</v>
-      </c>
-      <c r="P20" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>5</v>
-      </c>
-      <c r="R20" s="6">
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
+        <v>5</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5">
+        <v>5</v>
+      </c>
+      <c r="P20" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>5</v>
+      </c>
+      <c r="R20" s="5">
         <v>5</v>
       </c>
       <c r="T20">
@@ -1586,52 +1700,52 @@
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>5</v>
-      </c>
-      <c r="F21" s="6">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>5</v>
-      </c>
-      <c r="I21" s="5">
-        <v>5</v>
-      </c>
-      <c r="J21" s="4">
-        <v>5</v>
-      </c>
-      <c r="K21" s="4">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4">
-        <v>5</v>
-      </c>
-      <c r="M21" s="6">
-        <v>5</v>
-      </c>
-      <c r="N21" s="4">
-        <v>5</v>
-      </c>
-      <c r="O21" s="6">
-        <v>5</v>
-      </c>
-      <c r="P21" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>5</v>
-      </c>
-      <c r="R21" s="6">
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
+        <v>5</v>
+      </c>
+      <c r="M21" s="5">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
+        <v>5</v>
+      </c>
+      <c r="O21" s="5">
+        <v>5</v>
+      </c>
+      <c r="P21" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>5</v>
+      </c>
+      <c r="R21" s="5">
         <v>5</v>
       </c>
       <c r="T21">
@@ -1652,39 +1766,49 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4">
-        <v>5</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="5">
-        <v>5</v>
-      </c>
-      <c r="J22" s="6">
-        <v>5</v>
-      </c>
-      <c r="K22" s="4">
-        <v>5</v>
-      </c>
-      <c r="L22" s="6">
-        <v>5</v>
-      </c>
-      <c r="M22" s="4">
-        <v>5</v>
-      </c>
-      <c r="N22" s="6">
-        <v>5</v>
-      </c>
-      <c r="O22" s="6">
-        <v>5</v>
-      </c>
-      <c r="P22" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="6">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5</v>
+      </c>
+      <c r="N22" s="5">
+        <v>5</v>
+      </c>
+      <c r="O22" s="5">
+        <v>5</v>
+      </c>
+      <c r="P22" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="5">
         <v>10</v>
       </c>
       <c r="T22">
@@ -1705,21 +1829,41 @@
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4">
-        <v>5</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
       <c r="T23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1738,52 +1882,52 @@
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-      <c r="E24" s="4">
-        <v>5</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5</v>
-      </c>
-      <c r="G24" s="4">
-        <v>5</v>
-      </c>
-      <c r="H24" s="5">
-        <v>5</v>
-      </c>
-      <c r="I24" s="5">
-        <v>5</v>
-      </c>
-      <c r="J24" s="4">
-        <v>5</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5</v>
-      </c>
-      <c r="L24" s="4">
-        <v>5</v>
-      </c>
-      <c r="M24" s="4">
-        <v>5</v>
-      </c>
-      <c r="N24" s="6">
-        <v>5</v>
-      </c>
-      <c r="O24" s="6">
-        <v>5</v>
-      </c>
-      <c r="P24" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>5</v>
-      </c>
-      <c r="R24" s="6">
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5</v>
+      </c>
+      <c r="N24" s="5">
+        <v>5</v>
+      </c>
+      <c r="O24" s="5">
+        <v>5</v>
+      </c>
+      <c r="P24" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>5</v>
+      </c>
+      <c r="R24" s="5">
         <v>5</v>
       </c>
       <c r="T24">
@@ -1804,21 +1948,43 @@
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
       <c r="T25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1837,48 +2003,50 @@
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="4">
-        <v>5</v>
-      </c>
-      <c r="D26" s="4">
-        <v>5</v>
-      </c>
-      <c r="E26" s="6">
-        <v>5</v>
-      </c>
-      <c r="F26" s="6">
-        <v>5</v>
-      </c>
-      <c r="G26" s="4">
-        <v>5</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5</v>
-      </c>
-      <c r="I26" s="5">
-        <v>5</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="4">
-        <v>5</v>
-      </c>
-      <c r="L26" s="6">
-        <v>5</v>
-      </c>
-      <c r="M26" s="4">
-        <v>5</v>
-      </c>
-      <c r="N26" s="6">
-        <v>5</v>
-      </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>5</v>
-      </c>
-      <c r="R26" s="6">
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5</v>
+      </c>
+      <c r="N26" s="5">
+        <v>5</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>5</v>
+      </c>
+      <c r="R26" s="5">
         <v>5</v>
       </c>
       <c r="T26">
@@ -1899,48 +2067,52 @@
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="4">
-        <v>5</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5</v>
-      </c>
-      <c r="G27" s="4">
-        <v>5</v>
-      </c>
-      <c r="H27" s="5">
-        <v>5</v>
-      </c>
-      <c r="I27" s="5">
-        <v>5</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="4">
-        <v>5</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="4">
-        <v>5</v>
-      </c>
-      <c r="N27" s="6">
-        <v>5</v>
-      </c>
-      <c r="O27" s="6">
-        <v>5</v>
-      </c>
-      <c r="P27" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>5</v>
-      </c>
-      <c r="R27" s="6">
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5</v>
+      </c>
+      <c r="N27" s="5">
+        <v>5</v>
+      </c>
+      <c r="O27" s="5">
+        <v>5</v>
+      </c>
+      <c r="P27" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>5</v>
+      </c>
+      <c r="R27" s="5">
         <v>5</v>
       </c>
       <c r="T27">
@@ -1961,52 +2133,52 @@
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="6">
-        <v>5</v>
-      </c>
-      <c r="D28" s="6">
-        <v>5</v>
-      </c>
-      <c r="E28" s="6">
-        <v>5</v>
-      </c>
-      <c r="F28" s="6">
-        <v>5</v>
-      </c>
-      <c r="G28" s="4">
-        <v>5</v>
-      </c>
-      <c r="H28" s="5">
-        <v>5</v>
-      </c>
-      <c r="I28" s="5">
-        <v>5</v>
-      </c>
-      <c r="J28" s="4">
-        <v>5</v>
-      </c>
-      <c r="K28" s="6">
-        <v>5</v>
-      </c>
-      <c r="L28" s="6">
-        <v>5</v>
-      </c>
-      <c r="M28" s="6">
-        <v>5</v>
-      </c>
-      <c r="N28" s="6">
-        <v>5</v>
-      </c>
-      <c r="O28" s="6">
-        <v>5</v>
-      </c>
-      <c r="P28" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>5</v>
-      </c>
-      <c r="R28" s="6">
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5</v>
+      </c>
+      <c r="J28" s="3">
+        <v>5</v>
+      </c>
+      <c r="K28" s="3">
+        <v>5</v>
+      </c>
+      <c r="L28" s="3">
+        <v>5</v>
+      </c>
+      <c r="M28" s="5">
+        <v>5</v>
+      </c>
+      <c r="N28" s="5">
+        <v>5</v>
+      </c>
+      <c r="O28" s="5">
+        <v>5</v>
+      </c>
+      <c r="P28" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>5</v>
+      </c>
+      <c r="R28" s="5">
         <v>5</v>
       </c>
       <c r="T28">
@@ -2027,52 +2199,52 @@
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="4">
-        <v>5</v>
-      </c>
-      <c r="D29" s="4">
-        <v>5</v>
-      </c>
-      <c r="E29" s="4">
-        <v>5</v>
-      </c>
-      <c r="F29" s="6">
-        <v>5</v>
-      </c>
-      <c r="G29" s="4">
-        <v>5</v>
-      </c>
-      <c r="H29" s="5">
-        <v>5</v>
-      </c>
-      <c r="I29" s="5">
-        <v>5</v>
-      </c>
-      <c r="J29" s="4">
-        <v>5</v>
-      </c>
-      <c r="K29" s="4">
-        <v>5</v>
-      </c>
-      <c r="L29" s="6">
-        <v>5</v>
-      </c>
-      <c r="M29" s="4">
-        <v>5</v>
-      </c>
-      <c r="N29" s="6">
-        <v>5</v>
-      </c>
-      <c r="O29" s="6">
-        <v>5</v>
-      </c>
-      <c r="P29" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>5</v>
-      </c>
-      <c r="R29" s="6">
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>5</v>
+      </c>
+      <c r="N29" s="5">
+        <v>5</v>
+      </c>
+      <c r="O29" s="5">
+        <v>5</v>
+      </c>
+      <c r="P29" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>5</v>
+      </c>
+      <c r="R29" s="5">
         <v>5</v>
       </c>
       <c r="T29">
@@ -2093,35 +2265,43 @@
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="4">
-        <v>5</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4">
-        <v>5</v>
-      </c>
-      <c r="H30" s="5">
-        <v>5</v>
-      </c>
-      <c r="I30" s="5">
-        <v>5</v>
-      </c>
-      <c r="J30" s="4">
-        <v>5</v>
-      </c>
-      <c r="K30" s="4">
-        <v>5</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="4">
-        <v>5</v>
-      </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
+      <c r="C30" s="3">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4">
+        <v>5</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5</v>
+      </c>
+      <c r="J30" s="3">
+        <v>5</v>
+      </c>
+      <c r="K30" s="3">
+        <v>5</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>5</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
       <c r="T30">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2137,25 +2317,43 @@
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="4">
-        <v>5</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="4">
-        <v>5</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
+      <c r="C31" s="3">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>5</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
       <c r="T31">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2174,49 +2372,49 @@
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="4">
-        <v>5</v>
-      </c>
-      <c r="D32" s="4">
-        <v>5</v>
-      </c>
-      <c r="E32" s="4">
-        <v>5</v>
-      </c>
-      <c r="F32" s="4">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4">
-        <v>5</v>
-      </c>
-      <c r="H32" s="5">
-        <v>5</v>
-      </c>
-      <c r="I32" s="5">
-        <v>5</v>
-      </c>
-      <c r="J32" s="4">
-        <v>5</v>
-      </c>
-      <c r="K32" s="4">
-        <v>5</v>
-      </c>
-      <c r="L32" s="4">
-        <v>5</v>
-      </c>
-      <c r="M32" s="4">
-        <v>5</v>
-      </c>
-      <c r="N32" s="6">
-        <v>5</v>
-      </c>
-      <c r="O32" s="6">
-        <v>5</v>
-      </c>
-      <c r="P32" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="6">
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>5</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
+        <v>5</v>
+      </c>
+      <c r="N32" s="5">
+        <v>5</v>
+      </c>
+      <c r="O32" s="5">
+        <v>5</v>
+      </c>
+      <c r="P32" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="5">
         <v>5</v>
       </c>
       <c r="T32">
@@ -2237,49 +2435,49 @@
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="4">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4">
-        <v>5</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5</v>
-      </c>
-      <c r="F33" s="6">
-        <v>5</v>
-      </c>
-      <c r="G33" s="4">
-        <v>5</v>
-      </c>
-      <c r="H33" s="5">
-        <v>5</v>
-      </c>
-      <c r="I33" s="5">
-        <v>5</v>
-      </c>
-      <c r="J33" s="6">
-        <v>5</v>
-      </c>
-      <c r="K33" s="4">
-        <v>5</v>
-      </c>
-      <c r="L33" s="4">
-        <v>5</v>
-      </c>
-      <c r="M33" s="4">
-        <v>5</v>
-      </c>
-      <c r="N33" s="6">
-        <v>5</v>
-      </c>
-      <c r="O33" s="6">
-        <v>5</v>
-      </c>
-      <c r="P33" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="6"/>
+      <c r="C33" s="3">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
+        <v>5</v>
+      </c>
+      <c r="N33" s="5">
+        <v>5</v>
+      </c>
+      <c r="O33" s="5">
+        <v>5</v>
+      </c>
+      <c r="P33" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="5"/>
       <c r="T33">
         <f t="shared" si="0"/>
         <v>70</v>
